--- a/medicine/Sexualité et sexologie/Histoires_de_sexe(s)/Histoires_de_sexe(s).xlsx
+++ b/medicine/Sexualité et sexologie/Histoires_de_sexe(s)/Histoires_de_sexe(s).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Histoires de sexe(s) est un film français réalisé par Ovidie et Jack Tyler et sorti en 2009.
-Il a été classé X par la Commission de classification des œuvres cinématographiques malgré les protestations des metteurs en scène qui le destinaient au circuit traditionnel avec sortie en salles[1], devenant ainsi le premier dans ce cas depuis Elle ruisselle sous la caresse (1996)[2]. La sous-commission recommande à l'unanimité une interdiction aux moins de 18 ans, mais la commission plénière classe le film X[3]. L'arrêté de classement du ministre n'a jamais vu le jour, la demande de visa d'exploitation a été retirée.
-Le scénario d'Histoires de sexe(s) s'inspire du Déclin de l'empire américain[2] de Denys Arcand. Le film revendique une dimension pédagogique et a déjà été présenté lors d'un colloque à l'Université Bordeaux III[4].
+Il a été classé X par la Commission de classification des œuvres cinématographiques malgré les protestations des metteurs en scène qui le destinaient au circuit traditionnel avec sortie en salles, devenant ainsi le premier dans ce cas depuis Elle ruisselle sous la caresse (1996). La sous-commission recommande à l'unanimité une interdiction aux moins de 18 ans, mais la commission plénière classe le film X. L'arrêté de classement du ministre n'a jamais vu le jour, la demande de visa d'exploitation a été retirée.
+Le scénario d'Histoires de sexe(s) s'inspire du Déclin de l'empire américain de Denys Arcand. Le film revendique une dimension pédagogique et a déjà été présenté lors d'un colloque à l'Université Bordeaux III.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux dîners ont lieu simultanément. Agathe invite chez elle trois amies, Sandrine, Jennifer et Lise. Pendant ce temps, Jean-Philippe reçoit Bertrand, Seb et Franck. Les deux groupes se connaissent, certains sont en couple, et chaque participant au dîner parle de ses expériences sexuelles de son point de vue. Les points de vue des hommes et ceux des femmes sont souvent mis en parallèle. De nombreux flash-backs pornographiques viennent illustrer leurs propos.
 D'entrée de jeu, Jennifer annonce qu'elle vient de faire l'amour dans une voiture avec un ex qui la raccompagnait. Lise est scandalisée par ce qu'elle considère comme de l'exhibitionnisme, et rebondit sur une statistique qu'elle trouve peu crédible : un magazine annonce qu'il y a 400 000 échangistes en France. C'est l'occasion pour Sandrine de raconter un plan à quatre qui s'est mal passé avec son mari Bertrand et deux inconnus contactés sur internet...
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Histoires de sexe(s)
 Titre anglais international : Sex Stories
@@ -595,17 +611,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Membres des dîners
-Nomi : Agathe
+          <t>Membres des dîners</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nomi : Agathe
 Leeloo : Sandrine
 Amélie Jolie : Jennifer
 Lou Charmelle : Lise
 Phil Hollyday : Jean-Philippe
 Rico Simmons : Bertrand
 Sebastian Barrio : Seb
-Cruz : Franck
-Autres personnages
-Judy Minx : Caroline (partenaire de Jean-Philippe)
+Cruz : Franck</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Histoires_de_sexe(s)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoires_de_sexe(s)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Judy Minx : Caroline (partenaire de Jean-Philippe)
 Milka Manson : Camille (partenaire de Franck)
 Eliska Cross : Elisa (plan à quatre avec Sandrine et Bertrand)
 Klement : Clément (plan à quatre avec Sandrine et Bertrand)
@@ -617,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Histoires_de_sexe(s)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Histoires_de_sexe(s)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Toutes les plages sont du groupe Les Doulos.
 Ouverture
